--- a/game-files/cards.xlsx
+++ b/game-files/cards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>capacity</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>effect</t>
+  </si>
+  <si>
+    <t>Can play "+" cards as "-" cards</t>
+  </si>
+  <si>
+    <t>Political chaos</t>
   </si>
 </sst>
 </file>
@@ -644,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2682,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2891,6 +2897,20 @@
         <v>89</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/game-files/cards.xlsx
+++ b/game-files/cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Gather support from foreign diplomats</t>
   </si>
   <si>
-    <t>Negative statement from Ministry of Economy</t>
-  </si>
-  <si>
     <t>Playable in segment</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>Political chaos</t>
+  </si>
+  <si>
+    <t>Lobby foreign diplomats to damage proposal</t>
   </si>
 </sst>
 </file>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,13 +664,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
@@ -703,19 +703,19 @@
         <v>8</v>
       </c>
       <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
         <v>58</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>60</v>
       </c>
-      <c r="R1" t="s">
-        <v>61</v>
-      </c>
       <c r="S1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -804,7 +804,7 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J33" si="0">SUM(D3:I3)</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M3">
         <v>-1</v>
@@ -834,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -930,7 +930,7 @@
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -1106,7 +1106,7 @@
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1186,14 +1186,14 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1253,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1415,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1486,11 +1486,11 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" ref="E17:J17" si="2">SUMPRODUCT($A2:$A16, E2:E16)</f>
-        <v>-31</v>
+        <v>-33</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>-26</v>
+        <v>-23</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>-113</v>
+        <v>-112</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="O17" s="1">
         <f t="shared" ref="O17" si="5">SUMPRODUCT($A2:$A16, O2:O16)</f>
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ref="P17" si="6">SUMPRODUCT($A2:$A16, P2:P16)</f>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="Q17" s="1">
         <f t="shared" ref="Q17" si="7">SUMPRODUCT($A2:$A16, Q2:Q16)</f>
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" ref="R17" si="8">SUMPRODUCT($A2:$A16, R2:R16)</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="S17" s="1">
         <f t="shared" ref="S17" si="9">SUMPRODUCT($A2:$A16, S2:S16)</f>
-        <v>-78</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1546,11 +1546,11 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" ref="E18:R18" si="10">AVERAGE(E2:E16)</f>
-        <v>-0.8571428571428571</v>
+        <v>-0.9285714285714286</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="10"/>
-        <v>-0.7142857142857143</v>
+        <v>-0.6428571428571429</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="10"/>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="O18" s="1">
         <f t="shared" si="10"/>
-        <v>-0.42857142857142855</v>
+        <v>-0.5</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="10"/>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="10"/>
-        <v>-0.35714285714285715</v>
+        <v>-0.42857142857142855</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="10"/>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
-        <v>-2.1428571428571428</v>
+        <v>-2.2857142857142856</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -2081,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -2188,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>-2</v>
@@ -2283,11 +2283,11 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -2357,11 +2357,11 @@
       </c>
       <c r="R34" s="1">
         <f t="shared" ref="R34" si="17">SUMPRODUCT($A20:$A33,R20:R33)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S34" s="1">
         <f t="shared" ref="S34" si="18">SUMPRODUCT($A20:$A33,S20:S33)</f>
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -2417,11 +2417,11 @@
       </c>
       <c r="R35" s="1">
         <f t="shared" si="19"/>
-        <v>0.15384615384615385</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="S35">
         <f t="shared" si="1"/>
-        <v>2.2307692307692304</v>
+        <v>2.3076923076923075</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -2435,7 +2435,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37">
         <v>-1</v>
@@ -2500,11 +2500,11 @@
       </c>
       <c r="E42">
         <f t="shared" si="20"/>
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="F42">
         <f t="shared" si="20"/>
-        <v>-44</v>
+        <v>-41</v>
       </c>
       <c r="G42">
         <f t="shared" si="20"/>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="20"/>
-        <v>-219</v>
+        <v>-218</v>
       </c>
       <c r="M42">
         <f t="shared" ref="M42:R42" si="21">M17+M34</f>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="21"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="P42">
         <f t="shared" si="21"/>
@@ -2540,11 +2540,11 @@
       </c>
       <c r="Q42">
         <f t="shared" si="21"/>
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="R42">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2568,77 +2568,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>22</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <f>B27/4</f>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2690,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2703,212 +2703,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>80</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>88</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/game-files/cards.xlsx
+++ b/game-files/cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>capacity</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Lobby foreign diplomats to damage proposal</t>
+  </si>
+  <si>
+    <t>Promote a drunk permanent secretary</t>
   </si>
 </sst>
 </file>
@@ -648,21 +651,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.875" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -718,7 +721,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -774,7 +777,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -803,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J33" si="0">SUM(D3:I3)</f>
+        <f t="shared" ref="J3:J34" si="0">SUM(D3:I3)</f>
         <v>-3</v>
       </c>
       <c r="M3">
@@ -825,11 +828,11 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S39" si="1">SUM(M3:R3)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" ref="S3:S40" si="1">SUM(M3:R3)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -881,7 +884,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -933,7 +936,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -988,7 +991,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1465,265 +1468,261 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>-2</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>-2</v>
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f>SUM(A2:A16)</f>
-        <v>36</v>
-      </c>
-      <c r="D17" s="1">
-        <f>SUMPRODUCT($A2:$A16, D2:D16)</f>
-        <v>-17</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" ref="E17:J17" si="2">SUMPRODUCT($A2:$A16, E2:E16)</f>
-        <v>-33</v>
-      </c>
-      <c r="F17" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>SUM(A2:A17)</f>
+        <v>38</v>
+      </c>
+      <c r="D18" s="1">
+        <f>SUMPRODUCT($A2:$A17, D2:D17)</f>
+        <v>-19</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:J18" si="2">SUMPRODUCT($A2:$A17, E2:E17)</f>
+        <v>-37</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="2"/>
         <v>-23</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="2"/>
         <v>-21</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>-112</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1">
-        <f t="shared" ref="M17" si="3">SUMPRODUCT($A2:$A16, M2:M16)</f>
-        <v>-15</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" ref="N17" si="4">SUMPRODUCT($A2:$A16, N2:N16)</f>
-        <v>-22</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" ref="O17" si="5">SUMPRODUCT($A2:$A16, O2:O16)</f>
-        <v>-18</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" ref="P17" si="6">SUMPRODUCT($A2:$A16, P2:P16)</f>
-        <v>-6</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" ref="Q17" si="7">SUMPRODUCT($A2:$A16, Q2:Q16)</f>
-        <v>-18</v>
-      </c>
-      <c r="R17" s="1">
-        <f t="shared" ref="R17" si="8">SUMPRODUCT($A2:$A16, R2:R16)</f>
-        <v>-5</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" ref="S17" si="9">SUMPRODUCT($A2:$A16, S2:S16)</f>
-        <v>-84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D18" s="1">
-        <f>AVERAGE(D2:D16)</f>
-        <v>-0.5</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" ref="E18:R18" si="10">AVERAGE(E2:E16)</f>
-        <v>-0.9285714285714286</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.6428571428571429</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.5714285714285714</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.2857142857142857</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.21428571428571427</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="10"/>
-        <v>-2.9333333333333331</v>
+        <v>-118</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
+        <f t="shared" ref="M18" si="3">SUMPRODUCT($A2:$A17, M2:M17)</f>
+        <v>-15</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" ref="N18" si="4">SUMPRODUCT($A2:$A17, N2:N17)</f>
+        <v>-22</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18" si="5">SUMPRODUCT($A2:$A17, O2:O17)</f>
+        <v>-22</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" ref="P18" si="6">SUMPRODUCT($A2:$A17, P2:P17)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" ref="Q18" si="7">SUMPRODUCT($A2:$A17, Q2:Q17)</f>
+        <v>-18</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" ref="R18" si="8">SUMPRODUCT($A2:$A17, R2:R17)</f>
+        <v>-9</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" ref="S18" si="9">SUMPRODUCT($A2:$A17, S2:S17)</f>
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <f>AVERAGE(D2:D17)</f>
+        <v>-0.53333333333333333</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:R19" si="10">AVERAGE(E2:E17)</f>
+        <v>-1</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="10"/>
-        <v>-0.42857142857142855</v>
-      </c>
-      <c r="N18" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="10"/>
-        <v>-0.6428571428571429</v>
-      </c>
-      <c r="O18" s="1">
+        <v>-0.53333333333333333</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="10"/>
-        <v>-0.5</v>
-      </c>
-      <c r="P18" s="1">
+        <v>-0.26666666666666666</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" si="10"/>
-        <v>-0.14285714285714285</v>
-      </c>
-      <c r="Q18" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="10"/>
-        <v>-0.42857142857142855</v>
-      </c>
-      <c r="R18" s="1">
+        <v>-2.9375</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
         <f t="shared" si="10"/>
-        <v>-0.14285714285714285</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="1"/>
-        <v>-2.2857142857142856</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.4</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.13333333333333333</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.4</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.26666666666666666</v>
+      </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="D20">
-        <v>-2</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>-1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>-1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="D21">
+        <v>-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="D21">
-        <v>-1</v>
-      </c>
-      <c r="E21">
-        <v>-1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
       <c r="D22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E22">
         <v>-1</v>
       </c>
       <c r="F22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1736,10 +1735,10 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1751,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -1761,12 +1760,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1775,13 +1774,13 @@
         <v>-1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1791,13 +1790,13 @@
         <v>-3</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1813,24 +1812,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -1840,22 +1839,22 @@
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -1865,12 +1864,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -1879,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1892,7 +1891,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1904,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -1914,21 +1913,21 @@
       </c>
       <c r="S25">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>-1</v>
@@ -1947,19 +1946,19 @@
         <v>-3</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -1969,46 +1968,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I27">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2018,18 +2017,15 @@
       </c>
       <c r="S27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2047,20 +2043,20 @@
         <v>-2</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -2076,12 +2072,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2090,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
@@ -2128,27 +2127,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>-1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2161,7 +2157,7 @@
         <v>-3</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2170,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2183,46 +2179,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E31">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2235,21 +2231,24 @@
       </c>
       <c r="S31">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2258,23 +2257,23 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2283,268 +2282,320 @@
         <v>0</v>
       </c>
       <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="S32">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>-2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
       </c>
       <c r="S33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f>SUM(A20:A33)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>SUM(A21:A34)</f>
         <v>35</v>
       </c>
-      <c r="D34" s="1">
-        <f>SUMPRODUCT($A20:$A33,D20:D33)</f>
+      <c r="D35" s="1">
+        <f>SUMPRODUCT($A21:$A34,D21:D34)</f>
         <v>-23</v>
       </c>
-      <c r="E34" s="1">
-        <f t="shared" ref="E34:J34" si="11">SUMPRODUCT($A20:$A33,E20:E33)</f>
+      <c r="E35" s="1">
+        <f t="shared" ref="E35:J35" si="11">SUMPRODUCT($A21:$A34,E21:E34)</f>
         <v>-17</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F35" s="1">
         <f t="shared" si="11"/>
         <v>-18</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G35" s="1">
         <f t="shared" si="11"/>
         <v>-9</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H35" s="1">
         <f t="shared" si="11"/>
         <v>-29</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I35" s="1">
         <f t="shared" si="11"/>
         <v>-10</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J35" s="1">
         <f t="shared" si="11"/>
         <v>-106</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1">
-        <f t="shared" ref="M34" si="12">SUMPRODUCT($A20:$A33,M20:M33)</f>
-        <v>23</v>
-      </c>
-      <c r="N34" s="1">
-        <f t="shared" ref="N34" si="13">SUMPRODUCT($A20:$A33,N20:N33)</f>
-        <v>15</v>
-      </c>
-      <c r="O34" s="1">
-        <f t="shared" ref="O34" si="14">SUMPRODUCT($A20:$A33,O20:O33)</f>
-        <v>14</v>
-      </c>
-      <c r="P34" s="1">
-        <f t="shared" ref="P34" si="15">SUMPRODUCT($A20:$A33,P20:P33)</f>
-        <v>11</v>
-      </c>
-      <c r="Q34" s="1">
-        <f t="shared" ref="Q34" si="16">SUMPRODUCT($A20:$A33,Q20:Q33)</f>
-        <v>9</v>
-      </c>
-      <c r="R34" s="1">
-        <f t="shared" ref="R34" si="17">SUMPRODUCT($A20:$A33,R20:R33)</f>
-        <v>9</v>
-      </c>
-      <c r="S34" s="1">
-        <f t="shared" ref="S34" si="18">SUMPRODUCT($A20:$A33,S20:S33)</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D35" s="1">
-        <f>AVERAGE(D19:D33)</f>
-        <v>-0.61538461538461542</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" ref="E35:R35" si="19">AVERAGE(E19:E33)</f>
-        <v>-0.53846153846153844</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="19"/>
-        <v>-0.53846153846153844</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="19"/>
-        <v>-0.23076923076923078</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="19"/>
-        <v>-0.84615384615384615</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="19"/>
-        <v>-0.30769230769230771</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="19"/>
-        <v>-2.8571428571428572</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
+        <f t="shared" ref="M35" si="12">SUMPRODUCT($A21:$A34,M21:M34)</f>
+        <v>23</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" ref="N35" si="13">SUMPRODUCT($A21:$A34,N21:N34)</f>
+        <v>15</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" ref="O35" si="14">SUMPRODUCT($A21:$A34,O21:O34)</f>
+        <v>14</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" ref="P35" si="15">SUMPRODUCT($A21:$A34,P21:P34)</f>
+        <v>11</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" ref="Q35" si="16">SUMPRODUCT($A21:$A34,Q21:Q34)</f>
+        <v>9</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" ref="R35" si="17">SUMPRODUCT($A21:$A34,R21:R34)</f>
+        <v>9</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" ref="S35" si="18">SUMPRODUCT($A21:$A34,S21:S34)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
+        <f>AVERAGE(D20:D34)</f>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ref="E36:R36" si="19">AVERAGE(E20:E34)</f>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="19"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="19"/>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="19"/>
+        <v>-0.84615384615384615</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="19"/>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="19"/>
+        <v>-2.8571428571428572</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1">
         <f t="shared" si="19"/>
         <v>0.69230769230769229</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N36" s="1">
         <f t="shared" si="19"/>
         <v>0.46153846153846156</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O36" s="1">
         <f t="shared" si="19"/>
         <v>0.38461538461538464</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P36" s="1">
         <f t="shared" si="19"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q36" s="1">
         <f t="shared" si="19"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R36" s="1">
         <f t="shared" si="19"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f t="shared" si="1"/>
         <v>2.3076923076923075</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>5</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="D37">
-        <v>-1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>-1</v>
-      </c>
-      <c r="H37">
-        <v>-1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
       <c r="S38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D42">
-        <f t="shared" ref="D42:J42" si="20">D17+D34</f>
-        <v>-40</v>
-      </c>
-      <c r="E42">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f t="shared" ref="D43:J43" si="20">D18+D35</f>
+        <v>-42</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="20"/>
-        <v>-50</v>
-      </c>
-      <c r="F42">
+        <v>-54</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="20"/>
         <v>-41</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <f t="shared" si="20"/>
         <v>-30</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <f t="shared" si="20"/>
         <v>-39</v>
       </c>
-      <c r="I42">
+      <c r="I43">
         <f t="shared" si="20"/>
         <v>-18</v>
       </c>
-      <c r="J42">
+      <c r="J43">
         <f t="shared" si="20"/>
-        <v>-218</v>
-      </c>
-      <c r="M42">
-        <f t="shared" ref="M42:R42" si="21">M17+M34</f>
+        <v>-224</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43:R43" si="21">M18+M35</f>
         <v>8</v>
       </c>
-      <c r="N42">
+      <c r="N43">
         <f t="shared" si="21"/>
         <v>-7</v>
       </c>
-      <c r="O42">
+      <c r="O43">
         <f t="shared" si="21"/>
-        <v>-4</v>
-      </c>
-      <c r="P42">
+        <v>-8</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="Q42">
+      <c r="Q43">
         <f t="shared" si="21"/>
         <v>-9</v>
       </c>
-      <c r="R42">
+      <c r="R43">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2561,82 +2612,82 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -2644,7 +2695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2652,7 +2703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2661,13 +2712,13 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>B26+B28</f>
         <v>24.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -2675,7 +2726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>B26*B31</f>
         <v>44</v>
@@ -2694,14 +2745,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="66.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -2715,7 +2766,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2729,7 +2780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2743,7 +2794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -2757,7 +2808,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2771,7 +2822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -2785,7 +2836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2799,7 +2850,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2813,7 +2864,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2827,7 +2878,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2841,7 +2892,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2855,7 +2906,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -2869,7 +2920,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -2883,7 +2934,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -2897,7 +2948,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
